--- a/src/main/resources/i18n.xlsx
+++ b/src/main/resources/i18n.xlsx
@@ -5,16 +5,17 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB76DDF-5CCD-6046-8E4D-4A43421CB7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401B1792-CB65-454E-A0CB-F04B3B81A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
-    <sheet name="错误信息" sheetId="3" r:id="rId2"/>
+    <sheet name="App Message" sheetId="4" r:id="rId2"/>
+    <sheet name="Error Message" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>修订履历</t>
   </si>
@@ -263,6 +264,18 @@
     <t>E_013</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加4.0版本资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -329,6 +342,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -368,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -391,13 +424,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -452,6 +522,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,10 +546,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1825,14 +1952,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1895,7 +2022,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>47</v>
       </c>
@@ -1913,12 +2042,24 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="15">
+        <v>42481</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1">
       <c r="A7" s="4"/>
@@ -2070,15 +2211,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1758EA01-32AC-6F45-A1A7-BB00991A443E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IT18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="139" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="254" width="12.25" style="1" customWidth="1"/>
+    <col min="255" max="16384" width="12.25" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" hidden="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="2:9" ht="17">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17">
+      <c r="B4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="40">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="40">
+        <f t="shared" ref="B6:B18" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="40">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="40">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18" xr:uid="{D417C0BB-389C-504D-88EB-4A6DA6829228}">
+      <formula1>"未翻译"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -2096,22 +2534,22 @@
   <sheetData>
     <row r="1" spans="2:8" hidden="1"/>
     <row r="2" spans="2:8">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2821,7 @@
         <f t="shared" si="0"/>
         <v>资源ID【%s】重复，请检查。</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="19" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="5"/>

--- a/src/main/resources/i18n.xlsx
+++ b/src/main/resources/i18n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401B1792-CB65-454E-A0CB-F04B3B81A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4F5FA-BF31-A643-9768-FE42C1150A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>修订履历</t>
   </si>
@@ -275,6 +275,496 @@
   <si>
     <t>翻译状态</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddl.mssql</t>
+  </si>
+  <si>
+    <t>ddl.mysql</t>
+  </si>
+  <si>
+    <t>ddl.sqlite</t>
+  </si>
+  <si>
+    <t>dml</t>
+  </si>
+  <si>
+    <t>msg.resx</t>
+  </si>
+  <si>
+    <t>msg.json</t>
+  </si>
+  <si>
+    <t>msg.ios</t>
+  </si>
+  <si>
+    <t>msg.android</t>
+  </si>
+  <si>
+    <t>msg.prop</t>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SqlServer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ddl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>MySql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ddl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQLite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ddl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成数据库初始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.dml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.NET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际化资源文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.resx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际化资源文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>IOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际化资源文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际化资源文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>strings.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际化资源文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -284,7 +774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -362,6 +852,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -467,7 +964,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -528,12 +1025,60 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -555,53 +1100,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1952,14 +2455,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2217,10 +2720,10 @@
   </sheetPr>
   <dimension ref="A1:IT18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="139" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="107" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -2239,15 +2742,15 @@
   <sheetData>
     <row r="1" spans="2:9" hidden="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="33" t="s">
         <v>10</v>
       </c>
@@ -2255,236 +2758,314 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="2:9" ht="17">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="17">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="40">
+    <row r="5" spans="2:9" ht="16" customHeight="1">
+      <c r="B5" s="24">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="40">
+      <c r="C5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="16" t="str">
+        <f>IF(H5="", "", H5)</f>
+        <v>生成SqlServer数据库结构SQL脚本（.ddl）。</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="2:9" ht="16" customHeight="1">
+      <c r="B6" s="24">
         <f t="shared" ref="B6:B18" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="40">
+      <c r="C6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="16" t="str">
+        <f t="shared" ref="G6:G18" si="1">IF(H6="", "", H6)</f>
+        <v>生成MySql数据库结构SQL脚本（.ddl）。</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="2:9" ht="16" customHeight="1">
+      <c r="B7" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="40">
+      <c r="C7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成SQLite数据库结构SQL脚本（.ddl）。</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" ht="16" customHeight="1">
+      <c r="B8" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="40">
+      <c r="C8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成数据库初始 数据SQL脚本（.dml）。</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="2:9" ht="16" customHeight="1">
+      <c r="B9" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="40">
+      <c r="C9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成.NET国际化资源文件（.resx）。</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="2:9" ht="16" customHeight="1">
+      <c r="B10" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="40">
+      <c r="C10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成JSON国际化资源文件（.json）。</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="2:9" ht="16" customHeight="1">
+      <c r="B11" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="40">
+      <c r="C11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成IOS国际化资源文件（.strings）。</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" ht="16" customHeight="1">
+      <c r="B12" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="40">
+      <c r="C12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成Android国际化资源文件（strings.xml）。</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="2:9" ht="16" customHeight="1">
+      <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="C13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>生成Java国际化资源文件（.properties）。</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="40">
+      <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="40">
+      <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="40">
+      <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="40">
+      <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="40">
+      <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2516,7 +3097,7 @@
     <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -2534,22 +3115,22 @@
   <sheetData>
     <row r="1" spans="2:8" hidden="1"/>
     <row r="2" spans="2:8">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="23"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>

--- a/src/main/resources/i18n.xlsx
+++ b/src/main/resources/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4F5FA-BF31-A643-9768-FE42C1150A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EA10C-D050-9948-8FFF-E70ADC02D1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>修订履历</t>
   </si>
@@ -765,6 +765,72 @@
       </rPr>
       <t>）。</t>
     </r>
+  </si>
+  <si>
+    <t>Generate SQL script (.ddl) of SqlServer database structure.</t>
+  </si>
+  <si>
+    <t>Generate SQL script (.ddl) for MySql database structure.</t>
+  </si>
+  <si>
+    <t>Generate SQL script (.ddl) for SQLite database structure.</t>
+  </si>
+  <si>
+    <t>Generate SQL script (.dml) for initial database data.</t>
+  </si>
+  <si>
+    <t>Generate .NET international resource files (.resx).</t>
+  </si>
+  <si>
+    <t>Generate JSON international resource files (.json).</t>
+  </si>
+  <si>
+    <t>Generate IOS international resource files (.strings).</t>
+  </si>
+  <si>
+    <t>Generate an Android international resource file (strings.xml).</t>
+  </si>
+  <si>
+    <t>Generate Java international resource files (.properties).</t>
+  </si>
+  <si>
+    <t>Failed to convert%s attribute:%s</t>
+  </si>
+  <si>
+    <t>There is no%s field, please check whether the Excel template is correct.</t>
+  </si>
+  <si>
+    <t>There is no code to be generated in the specified Excel.</t>
+  </si>
+  <si>
+    <t>%s does not exist.</t>
+  </si>
+  <si>
+    <t>Excel failed to read, please check whether the Excel format is correct.</t>
+  </si>
+  <si>
+    <t>Failed to write file:%s</t>
+  </si>
+  <si>
+    <t>This type of code generation is currently not supported.</t>
+  </si>
+  <si>
+    <t>Unable to create (%s):%s</t>
+  </si>
+  <si>
+    <t>Resource ID [%s] is duplicated, please check.</t>
+  </si>
+  <si>
+    <t>Cannot access the value of the%s.%S property: \n%s</t>
+  </si>
+  <si>
+    <t>The output file already exists, and a directory cannot be generated. \n%s</t>
+  </si>
+  <si>
+    <t>Unable to create output file directory. \n%s</t>
+  </si>
+  <si>
+    <t>-Foreign key name is too long and has been truncated (%s) \n</t>
   </si>
 </sst>
 </file>
@@ -2720,10 +2786,10 @@
   </sheetPr>
   <dimension ref="A1:IT18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="107" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="107" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -2733,7 +2799,7 @@
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
     <col min="10" max="254" width="12.25" style="1" customWidth="1"/>
@@ -2818,9 +2884,8 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="16" t="str">
-        <f>IF(H5="", "", H5)</f>
-        <v>生成SqlServer数据库结构SQL脚本（.ddl）。</v>
+      <c r="G5" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>63</v>
@@ -2838,9 +2903,8 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="16" t="str">
-        <f t="shared" ref="G6:G18" si="1">IF(H6="", "", H6)</f>
-        <v>生成MySql数据库结构SQL脚本（.ddl）。</v>
+      <c r="G6" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>64</v>
@@ -2858,9 +2922,8 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成SQLite数据库结构SQL脚本（.ddl）。</v>
+      <c r="G7" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>65</v>
@@ -2878,9 +2941,8 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成数据库初始 数据SQL脚本（.dml）。</v>
+      <c r="G8" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>66</v>
@@ -2898,9 +2960,8 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成.NET国际化资源文件（.resx）。</v>
+      <c r="G9" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>67</v>
@@ -2918,9 +2979,8 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成JSON国际化资源文件（.json）。</v>
+      <c r="G10" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>68</v>
@@ -2938,9 +2998,8 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成IOS国际化资源文件（.strings）。</v>
+      <c r="G11" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="H11" s="46" t="s">
         <v>69</v>
@@ -2958,9 +3017,8 @@
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成Android国际化资源文件（strings.xml）。</v>
+      <c r="G12" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="46" t="s">
         <v>70</v>
@@ -2978,9 +3036,8 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>生成Java国际化资源文件（.properties）。</v>
+      <c r="G13" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>71</v>
@@ -2997,7 +3054,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G6:G18" si="1">IF(H14="", "", H14)</f>
         <v/>
       </c>
       <c r="H14" s="26"/>
@@ -3094,10 +3151,10 @@
   </sheetPr>
   <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -3107,7 +3164,7 @@
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
     <col min="8" max="253" width="12.25" style="1" customWidth="1"/>
     <col min="254" max="16384" width="12.25" style="10"/>
@@ -3182,9 +3239,8 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="16" t="str">
-        <f>IF(G5="", "", G5)</f>
-        <v>转换%s属性失败：%s</v>
+      <c r="F5" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>20</v>
@@ -3200,9 +3256,8 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="16" t="str">
-        <f t="shared" ref="F6:F18" si="0">IF(G6="", "", G6)</f>
-        <v>没有%s字段，请检查Excel模板是否正确。</v>
+      <c r="F6" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>22</v>
@@ -3218,9 +3273,8 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>所指定的Excel中没有要生成的代码。</v>
+      <c r="F7" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>24</v>
@@ -3236,9 +3290,8 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>%s 不存在。</v>
+      <c r="F8" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>26</v>
@@ -3254,9 +3307,8 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Excel读取失败，请检查Excel格式是否正确。</v>
+      <c r="F9" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>28</v>
@@ -3272,9 +3324,8 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>无法访问%s.%s属性的值: \r\n%s</v>
+      <c r="F10" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>30</v>
@@ -3290,16 +3341,15 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>写入文件失败：%s</v>
+      <c r="F11" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="32">
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -3308,9 +3358,8 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>输出文件已经存在，且是一个目录不可继续生成。\r\n%s</v>
+      <c r="F12" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>34</v>
@@ -3326,9 +3375,8 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>无法创建输出文件目录。\r\n%s</v>
+      <c r="F13" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>36</v>
@@ -3344,9 +3392,8 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>暂不支持此种类型的代码生成。</v>
+      <c r="F14" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>38</v>
@@ -3362,9 +3409,8 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>无法创建(%s)：%s</v>
+      <c r="F15" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>40</v>
@@ -3380,9 +3426,8 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-- 外键名太长已截断（%s）\r\n</v>
+      <c r="F16" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>45</v>
@@ -3398,9 +3443,8 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>资源ID【%s】重复，请检查。</v>
+      <c r="F17" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>49</v>
@@ -3415,7 +3459,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6:F18" si="0">IF(G18="", "", G18)</f>
         <v/>
       </c>
       <c r="G18" s="16"/>
